--- a/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
+++ b/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
@@ -251,13 +251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
+++ b/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
@@ -251,13 +251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
+++ b/new_classification_db/N3 - ENFORCEMENT ORDERS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">SE DESPACHA LA EJECUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HA TRANSCURRIDO EL PLAZO DE VEINTE DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DESPACHA</t>
   </si>
   <si>
     <t xml:space="preserve">N3 - AMOUNT</t>
@@ -243,21 +249,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,7 +371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>2</v>
       </c>
@@ -373,105 +379,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>26</v>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -479,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -487,15 +496,15 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
+      <c r="B31" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -503,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -511,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -519,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -527,7 +536,15 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
